--- a/Updates/Input data/company_digizag.xlsx
+++ b/Updates/Input data/company_digizag.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>company</t>
   </si>
@@ -53,61 +53,172 @@
     <t>digizag</t>
   </si>
   <si>
+    <t>tt10</t>
+  </si>
+  <si>
+    <t>دلال الشهري</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>2025-09-02 04:56:35</t>
+  </si>
+  <si>
+    <t>deraah_SA</t>
+  </si>
+  <si>
+    <t>dz50</t>
+  </si>
+  <si>
+    <t>Hany Hussien</t>
+  </si>
+  <si>
+    <t>not_paid</t>
+  </si>
+  <si>
+    <t>2025-09-02 23:11:19</t>
+  </si>
+  <si>
+    <t>tt20</t>
+  </si>
+  <si>
+    <t>افنان  الحربي</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2025-09-03 01:55:32</t>
+  </si>
+  <si>
+    <t>علي سعد</t>
+  </si>
+  <si>
+    <t>2025-09-04 02:48:14</t>
+  </si>
+  <si>
     <t>tt60</t>
   </si>
   <si>
-    <t>رائد المطيري</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>2025-08-21 14:03:32</t>
-  </si>
-  <si>
-    <t>deraah_SA</t>
-  </si>
-  <si>
-    <t>tt08</t>
-  </si>
-  <si>
-    <t>بكري سالم</t>
-  </si>
-  <si>
-    <t>not_paid</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>2025-08-22 03:42:39</t>
+    <t>budur alanazi</t>
+  </si>
+  <si>
+    <t>2025-09-04 07:15:57</t>
+  </si>
+  <si>
+    <t>dz43</t>
+  </si>
+  <si>
+    <t>Ahmed sameeh</t>
+  </si>
+  <si>
+    <t>2025-09-04 21:17:59</t>
+  </si>
+  <si>
+    <t>Amjad Saad</t>
+  </si>
+  <si>
+    <t>2025-09-05 15:37:27</t>
+  </si>
+  <si>
+    <t>Rawan Ahmed</t>
+  </si>
+  <si>
+    <t>2025-09-05 17:41:06</t>
+  </si>
+  <si>
+    <t>عبدالناصر أحمد</t>
+  </si>
+  <si>
+    <t>2025-09-05 18:04:15</t>
+  </si>
+  <si>
+    <t>tt22</t>
+  </si>
+  <si>
+    <t>amira Mohamed</t>
+  </si>
+  <si>
+    <t>2025-09-05 20:04:35</t>
+  </si>
+  <si>
+    <t>yazeed alshamrani</t>
+  </si>
+  <si>
+    <t>2025-09-06 06:33:22</t>
+  </si>
+  <si>
+    <t>tt27</t>
+  </si>
+  <si>
+    <t>مرح خالد</t>
+  </si>
+  <si>
+    <t>2025-09-07 00:20:04</t>
+  </si>
+  <si>
+    <t>Amirah mohamd</t>
+  </si>
+  <si>
+    <t>2025-09-07 00:26:23</t>
+  </si>
+  <si>
+    <t>mostafa sapra</t>
+  </si>
+  <si>
+    <t>2025-09-07 04:54:14</t>
+  </si>
+  <si>
+    <t>tt25</t>
+  </si>
+  <si>
+    <t>Asma Alharbi</t>
+  </si>
+  <si>
+    <t>2025-09-07 23:03:02</t>
+  </si>
+  <si>
+    <t>سيف الدين احمد ابو العز</t>
+  </si>
+  <si>
+    <t>2025-09-07 23:44:14</t>
+  </si>
+  <si>
+    <t>طلال الشمري</t>
+  </si>
+  <si>
+    <t>2025-09-08 04:14:28</t>
+  </si>
+  <si>
+    <t>ماجد احمد</t>
+  </si>
+  <si>
+    <t>2025-09-08 08:53:36</t>
+  </si>
+  <si>
+    <t>ماااري يي</t>
+  </si>
+  <si>
+    <t>2025-09-08 10:58:42</t>
+  </si>
+  <si>
+    <t>العطيفي محمود</t>
+  </si>
+  <si>
+    <t>2025-09-08 12:39:47</t>
   </si>
   <si>
     <t>tt72</t>
   </si>
   <si>
-    <t>احلام شاجري</t>
-  </si>
-  <si>
-    <t>2025-08-22 11:44:10</t>
-  </si>
-  <si>
-    <t>tt10</t>
-  </si>
-  <si>
-    <t>نورة محمد</t>
-  </si>
-  <si>
-    <t>2025-08-23 21:25:55</t>
-  </si>
-  <si>
-    <t>ريم عبدالله</t>
-  </si>
-  <si>
-    <t>2025-08-23 22:12:38</t>
+    <t>بيان المطيري</t>
+  </si>
+  <si>
+    <t>2025-09-08 15:13:31</t>
   </si>
 </sst>
 </file>
@@ -447,7 +558,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>10571396</v>
+        <v>10586985</v>
       </c>
       <c r="E2">
-        <v>389.24</v>
+        <v>204.55</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -533,10 +644,10 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>10571755</v>
+        <v>10588490</v>
       </c>
       <c r="E3">
-        <v>390.45</v>
+        <v>946.2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -545,10 +656,10 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -559,16 +670,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4">
-        <v>10571964</v>
+        <v>10588739</v>
       </c>
       <c r="E4">
-        <v>204.55</v>
+        <v>179.85</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -577,7 +688,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -591,28 +702,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>10590554</v>
+      </c>
+      <c r="E5">
+        <v>160.55</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5">
-        <v>10573269</v>
-      </c>
-      <c r="E5">
-        <v>485.45</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -623,30 +734,542 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>10573285</v>
+        <v>10590804</v>
       </c>
       <c r="E6">
-        <v>160.55</v>
+        <v>455.57</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>10591735</v>
+      </c>
+      <c r="E7">
+        <v>336.3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>10593071</v>
+      </c>
+      <c r="E8">
+        <v>439.85</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>10593151</v>
+      </c>
+      <c r="E9">
+        <v>399</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>10593211</v>
+      </c>
+      <c r="E10">
+        <v>361</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>10593427</v>
+      </c>
+      <c r="E11">
+        <v>78.9</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>10594290</v>
+      </c>
+      <c r="E12">
+        <v>365.75</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>10595424</v>
+      </c>
+      <c r="E13">
+        <v>268.75</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>10595430</v>
+      </c>
+      <c r="E14">
+        <v>195.05</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>10595783</v>
+      </c>
+      <c r="E15">
+        <v>500.86</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>10597032</v>
+      </c>
+      <c r="E16">
+        <v>227.05</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>10597170</v>
+      </c>
+      <c r="E17">
+        <v>336.3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>10597440</v>
+      </c>
+      <c r="E18">
+        <v>269.8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>10597605</v>
+      </c>
+      <c r="E19">
+        <v>103.55</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>10597712</v>
+      </c>
+      <c r="E20">
+        <v>151.35</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>10597753</v>
+      </c>
+      <c r="E21">
+        <v>374.3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>10597838</v>
+      </c>
+      <c r="E22">
+        <v>185.55</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
         <v>17</v>
       </c>
     </row>
